--- a/public/preprocessing/@AHMADDHANIPRAST.xlsx
+++ b/public/preprocessing/@AHMADDHANIPRAST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18243</v>
+        <v>31674</v>
       </c>
       <c r="C2" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['acording', 'to', 'adp']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['acording', 'to', 'adp']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['acording', 'to', 'adp']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18244</v>
+        <v>31675</v>
       </c>
       <c r="C3" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['sarkastik']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['sarkastik']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['sarkastik']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18245</v>
+        <v>31676</v>
       </c>
       <c r="C4" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['besok', 'saya', 'datang', 'menghadapi', 'para', 'pembela', 'penista', 'agama']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['besok', 'menghadapi', 'pembela', 'penista', 'agama']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['besok', 'hadap', 'bela', 'nista', 'agama']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18246</v>
+        <v>31677</v>
       </c>
       <c r="C5" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['cuitan', 'sarkastik', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['cuitan', 'sarkastik', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['cuit', 'sarkastik', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18247</v>
+        <v>31678</v>
       </c>
       <c r="C6" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['save', 'badan, usaha, milik, negara', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['save', 'bumn', 'by', 'ahmaddhani']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['save', 'bumn', 'by', 'ahmaddhani']</t>
+          <t>['save', 'badan, usaha, milik, negara', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['save', 'badan usaha milik negara', 'by', 'ahmaddhani']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18248</v>
+        <v>31679</v>
       </c>
       <c r="C7" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,17 +702,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['saya', 'ikut', 'pengajian', 'ustaz', 'abdul', 'somad', 'di', 'bali', 'yuk', 'hadir']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['pengajian', 'ustadz', 'abdul', 'somad', 'bali', 'yuk', 'hadir']</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['aji', 'ustadz', 'abdul', 'somad', 'bal', 'yuk', 'hadir']</t>
+          <t>['pengajian', 'ustaz', 'abdul', 'somad', 'bali', 'yuk', 'hadir']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['aji', 'ustaz', 'abdul', 'somad', 'bal', 'yuk', 'hadir']</t>
         </is>
       </c>
     </row>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18249</v>
+        <v>31680</v>
       </c>
       <c r="C8" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['saya', 'belum', 'pernah', 'sama', 'sekali', 'instal', 'yang', 'namanya', 'traveloka']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>['instal', 'namanya', 'traveloka']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['instal', 'nama', 'traveloka']</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18250</v>
+        <v>31681</v>
       </c>
       <c r="C9" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['warganet', 'tolol', 'yang', 'bilang', 'saya', 'pernah', 'injak', 'ayat', 'quraniq', 'nya', 'pasti', 'se', 'kolam']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['netizen', 'tolol', 'sy', 'injak', 'ayat', 'quraniq', 'kolam']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['netizen', 'tolol', 'sy', 'injak', 'ayat', 'quraniq', 'kolam']</t>
+          <t>['warganet', 'tolol', 'injak', 'ayat', 'quraniq', 'kolam']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['warganet', 'tolol', 'injak', 'ayat', 'quraniq', 'kolam']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18251</v>
+        <v>31682</v>
       </c>
       <c r="C10" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['pluralisme', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['pluralisme', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['pluralisme', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18252</v>
+        <v>31683</v>
       </c>
       <c r="C11" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['politisi', 'kalap', 'pilihan, kepala, daerah', 'bukan', 'memilih', 'pemimpin', 'agama', 'ahmaddhani', 'memilih', 'pemimpin', 'berdasarkan', 'agama', 'atau', 'berdas']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['politisi', 'kalap', 'pilkada', 'memilih', 'pemimpin', 'agama', 'ahmaddhani', 'memilih', 'pemimpin', 'berdasarkan', 'agama', 'berdas']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['politis', 'kalap', 'pilkada', 'pilih', 'pimpin', 'agama', 'ahmaddhani', 'pilih', 'pimpin', 'dasar', 'agama', 'das']</t>
+          <t>['politisi', 'kalap', 'pilihan, kepala, daerah', 'memilih', 'pemimpin', 'agama', 'ahmaddhani', 'memilih', 'pemimpin', 'berdasarkan', 'agama', 'berdas']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['politis', 'kalap', 'pilih kepala daerah', 'pilih', 'pimpin', 'agama', 'ahmaddhani', 'pilih', 'pimpin', 'dasar', 'agama', 'das']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18253</v>
+        <v>31684</v>
       </c>
       <c r="C12" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,17 +907,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['apakah', 'menista', 'agama', 'jika', 'berkata', 'bahwa', 'ulama', 'tidak', 'pantas', 'bicara', 'akhirat', 'karena', 'belum', 'pernah', 'kesana']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['menista', 'agama', 'jk', 'ulama', 'bicara', 'akhirat', 'kesana']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['nista', 'agama', 'jk', 'ulama', 'bicara', 'akhirat', 'kesana']</t>
+          <t>['menista', 'agama', 'ulama', 'bicara', 'akhirat', 'kesana']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['nista', 'agama', 'ulama', 'bicara', 'akhirat', 'kesana']</t>
         </is>
       </c>
     </row>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18254</v>
+        <v>31685</v>
       </c>
       <c r="C13" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,15 +948,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['fakta', 'bahwa', 'banyak', 'yang', 'belum', 'cerdas', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['fakta', 'cerdas', 'by', 'ahmaddhani']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['fakta', 'cerdas', 'by', 'ahmaddhani']</t>
         </is>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18255</v>
+        <v>31686</v>
       </c>
       <c r="C14" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['goro', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['goro', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['goro', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18256</v>
+        <v>31687</v>
       </c>
       <c r="C15" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,15 +1030,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['happy', 'birthday', 'my', 'bro']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['happy', 'birthday', 'my', 'bro']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['happy', 'birthday', 'my', 'bro']</t>
         </is>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18257</v>
+        <v>31688</v>
       </c>
       <c r="C16" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['ajaran', 'ajaran', 'penting', 'dari', 'gus', 'dur', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['ajaran', 'ajaran', 'gus', 'dur', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['ajar', 'ajar', 'gus', 'dur', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18258</v>
+        <v>31689</v>
       </c>
       <c r="C17" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['common', 'people', 'royal', 'wedding', 'only', 'in', 'indonesiaadp']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['common', 'people', 'royal', 'wedding', 'only', 'in', 'indonesiaadp']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['common', 'people', 'royal', 'wedding', 'only', 'in', 'indonesiaadp']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18259</v>
+        <v>31690</v>
       </c>
       <c r="C18" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,17 +1153,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['barisan, serba, guna', 'ku', 'pahlawan', 'ku', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['banser', 'ku', 'pahlawan', 'ku', 'by', 'ahmad', 'dhani']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['banser', 'ku', 'pahlawan', 'ku', 'by', 'ahmad', 'dhani']</t>
+          <t>['barisan, serba, guna', 'ku', 'pahlawan', 'ku', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['baris serba guna', 'ku', 'pahlawan', 'ku', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18260</v>
+        <v>31691</v>
       </c>
       <c r="C19" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['organisasi, masyarakat', 'islam', 'yang', 'harus', 'dibubarkan']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['ormas', 'islam', 'dibubarkan']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['ormas', 'islam', 'bubar']</t>
+          <t>['organisasi, masyarakat', 'islam', 'dibubarkan']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['organisasi masyarakat', 'islam', 'bubar']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18261</v>
+        <v>31692</v>
       </c>
       <c r="C20" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['lady', 'gaga', 'tidak', 'takut', 'ustaz', 'felix', 'siauw', 'takut', 'ustaz', 'ngeri', 'adp']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['lady', 'gaga', 'takut', 'ustadz', 'felix', 'siauw', 'takut', 'ustadz', 'ngeri', 'adp']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['lady', 'gaga', 'takut', 'ustadz', 'felix', 'siauw', 'takut', 'ustadz', 'ngeri', 'adp']</t>
+          <t>['lady', 'gaga', 'takut', 'ustaz', 'felix', 'siauw', 'takut', 'ustaz', 'ngeri', 'adp']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['lady', 'gaga', 'takut', 'ustaz', 'felix', 'siauw', 'takut', 'ustaz', 'ngeri', 'adp']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18262</v>
+        <v>31693</v>
       </c>
       <c r="C21" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['video', 'anak', 'ahmad', 'dhani', 'dikagumi', 'asing']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['video', 'anak', 'ahmad', 'dhani', 'dikagumi', 'asing']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['video', 'anak', 'ahmad', 'dhani', 'kagum', 'asing']</t>
         </is>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18263</v>
+        <v>31694</v>
       </c>
       <c r="C22" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['adp', 'news', 'ahmad', 'dhani', 'resmikan', 'karaoke', 'baru', 'di', 'medan']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['adp', 'news', 'ahmad', 'dhani', 'resmikan', 'karaoke', 'medan']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['adp', 'news', 'ahmad', 'dhani', 'resmi', 'karaoke', 'medan']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>18264</v>
+        <v>31695</v>
       </c>
       <c r="C23" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['grand', 'opening', 'masterpiece', 'signature', 'multatuli', 'medan']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['grand', 'opening', 'masterpiece', 'signature', 'multatuli', 'medan']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['grand', 'opening', 'masterpiece', 'signature', 'multatuli', 'medan']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18265</v>
+        <v>31696</v>
       </c>
       <c r="C24" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['cari', 'artis', 'yang', 'tidak', 'pernah', 'di', 'bunuh', 'karakter', 'nya', 'oleh', 'lebih', 'itulah', 'dia', 'sebenarnya']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['cari', 'artis', 'bunuh', 'karakter', 'turah']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['cari', 'artis', 'bunuh', 'karakter', 'turah']</t>
+          <t>['cari', 'artis', 'bunuh', 'karakter']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['cari', 'artis', 'bunuh', 'karakter']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18266</v>
+        <v>31697</v>
       </c>
       <c r="C25" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,15 +1440,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['jaman', 'now', 'leader', 'pindah', 'haluan', 'jadi', 'dealersalam', 'reklamasiampmeikarta']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['jaman', 'now', 'leader', 'pindah', 'haluan', 'dealersalam', 'reklamasiampmeikarta']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['jaman', 'now', 'leader', 'pindah', 'haluan', 'dealersalam', 'reklamasiampmeikarta']</t>
         </is>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18267</v>
+        <v>31698</v>
       </c>
       <c r="C26" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['negara, kesatuan, republik, indonesia', 'harga', 'mati', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['nkri', 'harga', 'mati', 'by', 'ahmad', 'dhani']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['nkri', 'harga', 'mati', 'by', 'ahmad', 'dhani']</t>
+          <t>['negara, kesatuan, republik, indonesia', 'harga', 'mati', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['negara satu republik indonesia', 'harga', 'mati', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18268</v>
+        <v>31699</v>
       </c>
       <c r="C27" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['ulama', 'yang', 'menolak', 'undangan', 'presidenmenteri', 'adalah', 'ulama', 'idola', 'para', 'santri']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['ulama', 'menolak', 'undangan', 'presidenmenteri', 'ulama', 'idola', 'santri']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['ulama', 'tolak', 'undang', 'presidenmenteri', 'ulama', 'idola', 'santri']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18269</v>
+        <v>31700</v>
       </c>
       <c r="C28" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,15 +1563,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['kenapa', 'reklamasi', 'harus', 'di', 'stop', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['reklamasi', 'stop', 'by', 'ahmaddhani']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['reklamasi', 'stop', 'by', 'ahmaddhani']</t>
         </is>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18270</v>
+        <v>31701</v>
       </c>
       <c r="C29" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['ada', 'pejuang', 'proklamasi', 'kini', 'ada', 'pejuang', 'reklamasi']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['pejuang', 'proklamasi', 'pejuang', 'reklamasi']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['juang', 'proklamasi', 'juang', 'reklamasi']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18271</v>
+        <v>31702</v>
       </c>
       <c r="C30" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,15 +1645,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['bravo', 'mahasiswa', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['bravo', 'mahasiswa', 'indonesia']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>['bravo', 'mahasiswa', 'indonesia']</t>
         </is>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18272</v>
+        <v>31703</v>
       </c>
       <c r="C31" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,15 +1686,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['isu', 'pribumi', 'itu', 'seksi', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['isu', 'pribumi', 'seksi', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['isu', 'pribumi', 'seksi', 'ahmad', 'dhani']</t>
         </is>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18273</v>
+        <v>31704</v>
       </c>
       <c r="C32" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['pbb', 'menetapkan', 'tanggal', 'agustus', 'sebagai', 'hari', 'pribumi', 'internasional']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['pbb', 'menetapkan', 'tgl', 'agustus', 'pribumi', 'internasional']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['pbb', 'tetap', 'tgl', 'agustus', 'pribumi', 'internasional']</t>
+          <t>['pbb', 'menetapkan', 'tanggal', 'agustus', 'pribumi', 'internasional']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['pbb', 'tetap', 'tanggal', 'agustus', 'pribumi', 'internasional']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18274</v>
+        <v>31705</v>
       </c>
       <c r="C33" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['bahaya', 'kebangkitan', 'pribumi', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['bahaya', 'kebangkitan', 'pribumi', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['bahaya', 'bangkit', 'pribumi', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18275</v>
+        <v>31706</v>
       </c>
       <c r="C34" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,15 +1809,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['rt', 'fadli', 'zon', 'umumkan', 'ahmad', 'dhani', 'resmi', 'gabung', 'gerindra']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['fadli', 'zon', 'umumkan', 'ahmad', 'dhani', 'resmi', 'gabung', 'gerindra']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['fadli', 'zon', 'umum', 'ahmad', 'dhani', 'resmi', 'gabung', 'gerindra']</t>
         </is>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18276</v>
+        <v>31707</v>
       </c>
       <c r="C35" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,17 +1850,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['untuk', 'yang', 'historis', 'dan', 'agak', 'bodoh', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['historis', 'bodo', 'by', 'ahmaddhani']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['historis', 'bodo', 'by', 'ahmaddhani']</t>
+          <t>['historis', 'bodoh', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['historis', 'bodoh', 'by', 'ahmaddhani']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18277</v>
+        <v>31708</v>
       </c>
       <c r="C36" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
@@ -1712,15 +1887,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1731,10 +1911,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18278</v>
+        <v>31709</v>
       </c>
       <c r="C37" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1748,17 +1928,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['rt', 'konferensi', 'nasional', 'amp', 'temu', 'kader', 'resmi', 'menerima', 'kartu', 'sebagai', 'anggota', 'gerindra', 'selamat']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['konferensi', 'nasional', 'temu', 'kader', 'resmi', 'menerima', 'kartu', 'sbg', 'anggota', 'gerindra', 'selamat']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['konferensi', 'nasional', 'temu', 'kader', 'resmi', 'terima', 'kartu', 'sbg', 'anggota', 'gerindra', 'selamat']</t>
+          <t>['konferensi', 'nasional', 'temu', 'kader', 'resmi', 'menerima', 'kartu', 'anggota', 'gerindra', 'selamat']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['konferensi', 'nasional', 'temu', 'kader', 'resmi', 'terima', 'kartu', 'anggota', 'gerindra', 'selamat']</t>
         </is>
       </c>
     </row>
@@ -1767,10 +1952,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18279</v>
+        <v>31710</v>
       </c>
       <c r="C38" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1784,15 +1969,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['cara', 'kecebong', 'memanipulasi', 'tentang', 'pribumi', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['kecebong', 'memanipulasi', 'pribumi', 'by', 'ahmaddhani']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['kecebong', 'manipulasi', 'pribumi', 'by', 'ahmaddhani']</t>
         </is>
@@ -1803,10 +1993,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18280</v>
+        <v>31711</v>
       </c>
       <c r="C39" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1820,15 +2010,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['pribumi', 'itu', 'adalihat', 'saja', 'di', 'kamus', 'bahasa', 'indonesia', 'repot', 'amat', 'adp']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['pribumi', 'adalihat', 'kamus', 'bahasa', 'indonesia', 'repot', 'adp']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['pribumi', 'adalihat', 'kamus', 'bahasa', 'indonesia', 'repot', 'adp']</t>
         </is>
@@ -1839,10 +2034,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18281</v>
+        <v>31712</v>
       </c>
       <c r="C40" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1856,15 +2051,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['beda', 'indonesia', 'dan', 'amerikadalam', 'konteks', 'pribumi']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['beda', 'indonesia', 'amerikadalam', 'konteks', 'pribumi']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['beda', 'indonesia', 'amerikadalam', 'konteks', 'pribumi']</t>
         </is>
@@ -1875,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18282</v>
+        <v>31713</v>
       </c>
       <c r="C41" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1892,15 +2092,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['selamat', 'wakil', 'gubernur', 'baru']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['selamat', 'wakil', 'gubernur']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['selamat', 'wakil', 'gubernur']</t>
         </is>
@@ -1911,10 +2116,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18283</v>
+        <v>31714</v>
       </c>
       <c r="C42" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1928,15 +2133,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['kenapa', 'arab', 'indonesia', 'itu', 'pribumi', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['arab', 'indonesia', 'pribumi', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['arab', 'indonesia', 'pribumi', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -1947,10 +2157,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18284</v>
+        <v>31715</v>
       </c>
       <c r="C43" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1964,15 +2174,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['selamat', 'gubernur', 'baru']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['selamat', 'gubernur']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['selamat', 'gubernur']</t>
         </is>
@@ -1983,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18285</v>
+        <v>31716</v>
       </c>
       <c r="C44" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2000,15 +2215,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['letjend', 'agus', 'sutomo', 'adp', 'salam', 'komando']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>['letjend', 'agus', 'sutomo', 'adp', 'salam', 'komando']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['letjend', 'agus', 'sutomo', 'adp', 'salam', 'komando']</t>
         </is>
@@ -2019,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18286</v>
+        <v>31717</v>
       </c>
       <c r="C45" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2036,17 +2256,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['the', 'ahmad', 'amp', 'jenderal', 'susilo', 'bambang', 'yudhoyono']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['the', 'ahmad', 'jendral', 'susilo', 'bambang', 'yudhoyono']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['the', 'ahmad', 'jendral', 'susilo', 'bambang', 'yudhoyono']</t>
+          <t>['the', 'ahmad', 'jenderal', 'susilo', 'bambang', 'yudhoyono']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['the', 'ahmad', 'jenderal', 'susilo', 'bambang', 'yudhoyono']</t>
         </is>
       </c>
     </row>
@@ -2055,10 +2280,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18287</v>
+        <v>31718</v>
       </c>
       <c r="C46" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2072,17 +2297,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['jenderal', 'hari, ulang, tahun', 'adp']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['jendral', 'hut', 'adp']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['jendral', 'hut', 'adp']</t>
+          <t>['jenderal', 'hari, ulang, tahun', 'adp']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['jenderal', 'hari ulang tahun', 'adp']</t>
         </is>
       </c>
     </row>
@@ -2091,10 +2321,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18288</v>
+        <v>31719</v>
       </c>
       <c r="C47" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2108,17 +2338,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['letnan, jenderal', 'sutiyoso', 'adp']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['letjen', 'sutiyoso', 'adp']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['letjen', 'sutiyoso', 'adp']</t>
+          <t>['letnan, jenderal', 'sutiyoso', 'adp']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['letnan jenderal', 'sutiyoso', 'adp']</t>
         </is>
       </c>
     </row>
@@ -2127,10 +2362,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18289</v>
+        <v>31720</v>
       </c>
       <c r="C48" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2144,17 +2379,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['the', 'ahmad', 'amp', 'jenderal', 'ryamizard', 'ryacudu']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['the', 'ahmad', 'jendral', 'ryamizard', 'ryacudu']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['the', 'ahmad', 'jendral', 'ryamizard', 'ryacudu']</t>
+          <t>['the', 'ahmad', 'jenderal', 'ryamizard', 'ryacudu']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['the', 'ahmad', 'jenderal', 'ryamizard', 'ryacudu']</t>
         </is>
       </c>
     </row>
@@ -2163,10 +2403,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18290</v>
+        <v>31721</v>
       </c>
       <c r="C49" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2180,17 +2420,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['ahmad', 'dhani', 'famili']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['ahmad', 'dhani', 'family']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['ahmad', 'dhani', 'family']</t>
+          <t>['ahmad', 'dhani', 'famili']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['ahmad', 'dhani', 'famili']</t>
         </is>
       </c>
     </row>
@@ -2199,10 +2444,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18291</v>
+        <v>31722</v>
       </c>
       <c r="C50" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2216,15 +2461,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['rakyat', 'di', 'paksa', 'tole', 'til']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['rakyat', 'paksa', 'tole', 'til']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['rakyat', 'paksa', 'tole', 'til']</t>
         </is>
@@ -2235,10 +2485,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18292</v>
+        <v>31723</v>
       </c>
       <c r="C51" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2252,17 +2502,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['laskar', 'cinta', 'bukan', 'laskar', 'belum', 'agama', 'di', 'menistakan', 'mbidhek', 'saja']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['laskar', 'cinta', 'laskar', 'bloon', 'agama', 'nistakan', 'mbidhek', 'ae']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['laskar', 'cinta', 'laskar', 'bloon', 'agama', 'nista', 'mbidhek', 'ae']</t>
+          <t>['laskar', 'cinta', 'laskar', 'agama', 'menistakan', 'mbidhek']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['laskar', 'cinta', 'laskar', 'agama', 'nista', 'mbidhek']</t>
         </is>
       </c>
     </row>
@@ -2271,10 +2526,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18293</v>
+        <v>31724</v>
       </c>
       <c r="C52" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2288,17 +2543,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['letnan, jenderal', 'marciano', 'norman', 'adp']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['letjen', 'marciano', 'norman', 'adp']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['letjen', 'marciano', 'norman', 'adp']</t>
+          <t>['letnan, jenderal', 'marciano', 'norman', 'adp']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['letnan jenderal', 'marciano', 'norman', 'adp']</t>
         </is>
       </c>
     </row>
@@ -2307,10 +2567,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18294</v>
+        <v>31725</v>
       </c>
       <c r="C53" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2324,15 +2584,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['hati', 'menyebar', 'kebencian', 'kepada', 'para', 'pembela', 'pelaku', 'pidanabs', 'di', 'periksa', 'polisi']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['hati', 'menyebar', 'kebencian', 'pembela', 'pelaku', 'pidanabs', 'periksa', 'polisi']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>['hati', 'sebar', 'benci', 'bela', 'laku', 'pidanabs', 'periksa', 'polisi']</t>
         </is>
@@ -2343,10 +2608,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18295</v>
+        <v>31726</v>
       </c>
       <c r="C54" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2360,17 +2625,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['bravo', 'tentara, nasional, indonesia', 'tahun']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['bravo', 'tni']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['bravo', 'tni']</t>
+          <t>['bravo', 'tentara, nasional, indonesia']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['bravo', 'tentara nasional indonesia']</t>
         </is>
       </c>
     </row>
@@ -2379,10 +2649,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18296</v>
+        <v>31727</v>
       </c>
       <c r="C55" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2396,17 +2666,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['meminta', 'tolong', 'ke', 'bankdunia', 'itu', 'sama', 'dengan', 'gadis', 'cantik', 'meminta', 'tolong', 'kepada', 'germo']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['tolong', 'bankdunia', 'gadis', 'cantik', 'tolong', 'kpd', 'germo']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['tolong', 'bankdunia', 'gadis', 'cantik', 'tolong', 'kpd', 'germo']</t>
+          <t>['tolong', 'bankdunia', 'gadis', 'cantik', 'tolong', 'germo']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['tolong', 'bankdunia', 'gadis', 'cantik', 'tolong', 'germo']</t>
         </is>
       </c>
     </row>
@@ -2415,10 +2690,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18297</v>
+        <v>31728</v>
       </c>
       <c r="C56" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2432,17 +2707,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['polit', 'biro', 'republik, rakyat, cina', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['polit', 'biro', 'rrc', 'by', 'ahmad', 'dhani']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['polit', 'biro', 'rrc', 'by', 'ahmad', 'dhani']</t>
+          <t>['polit', 'biro', 'republik, rakyat, cina', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['polit', 'biro', 'republik rakyat cina', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
     </row>
@@ -2451,10 +2731,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18298</v>
+        <v>31729</v>
       </c>
       <c r="C57" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2468,17 +2748,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['wah', 'gawat', 'gara', 'gara', 'reklamasi', 'bisa', 'di', 'tunda', 'nih', 'pelantikan', 'gubernur', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['gawat', 'gara', 'gara', 'reklamasi', 'tunda', 'pelantikan', 'gubernur', 'dki']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['gawat', 'gara', 'gara', 'reklamasi', 'tunda', 'lantik', 'gubernur', 'dki']</t>
+          <t>['gawat', 'gara', 'gara', 'reklamasi', 'tunda', 'pelantikan', 'gubernur', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['gawat', 'gara', 'gara', 'reklamasi', 'tunda', 'lantik', 'gubernur', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -2487,10 +2772,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18299</v>
+        <v>31730</v>
       </c>
       <c r="C58" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2504,15 +2789,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rt', 'bunuh', 'hampir', 'ruang', 'langsung', 'dan', 'luka', 'disebut', 'gunman', 'bunuh', 'orang', 'disebut', 'teroris']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['bunuh', 'ruang', 'langsung', 'luka', 'gunman', 'bunuh', 'orang', 'teroris']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['bunuh', 'ruang', 'langsung', 'luka', 'gunman', 'bunuh', 'orang', 'teroris']</t>
         </is>
@@ -2523,10 +2813,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18300</v>
+        <v>31731</v>
       </c>
       <c r="C59" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2540,17 +2830,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['teroris', 'terbesar', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['terorist', 'terbesar', 'by', 'ahmad', 'dhani']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['terorist', 'besar', 'by', 'ahmad', 'dhani']</t>
+          <t>['teroris', 'terbesar', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['teroris', 'besar', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
     </row>
@@ -2559,10 +2854,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18301</v>
+        <v>31732</v>
       </c>
       <c r="C60" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2576,17 +2871,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['terorisnya', 'kan', 'dari', 'kita', 'kita', 'kamu', 'kali']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['terorisnya', 'ente', 'kali']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['teroris', 'ente', 'kali']</t>
+          <t>['terorisnya', 'kali']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['teroris', 'kali']</t>
         </is>
       </c>
     </row>
@@ -2595,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18302</v>
+        <v>31733</v>
       </c>
       <c r="C61" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2612,17 +2912,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['kembalikan', 'lagi', 'dwifungsi', 'abri', 'long', 'live', 'tentara, nasional, indonesia', 'happy', 'milad']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['kembalikan', 'dwifungsi', 'abri', 'long', 'live', 'tni', 'happy', 'milad']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['kembali', 'dwifungsi', 'abri', 'long', 'live', 'tni', 'happy', 'milad']</t>
+          <t>['kembalikan', 'dwifungsi', 'abri', 'long', 'live', 'tentara, nasional, indonesia', 'happy', 'milad']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['kembali', 'dwifungsi', 'abri', 'long', 'live', 'tentara nasional indonesia', 'happy', 'milad']</t>
         </is>
       </c>
     </row>
@@ -2631,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18303</v>
+        <v>31734</v>
       </c>
       <c r="C62" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2648,17 +2953,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kalau', 'teroris', 'nya', 'itu', 'ada', 'ahok', 'pasti', 'sudah', 'di', 'bom', 'dari', 'kemarinjangan', 'asal', 'berbicara', 'terorisnya', 'dari', 'kita']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['teroris', 'ahok', 'bom', 'kemarinjangan', 'ngomong', 'terorisnya', 'dr']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['teroris', 'ahok', 'bom', 'kemarinjangan', 'ngomong', 'teroris', 'dr']</t>
+          <t>['teroris', 'ahok', 'bom', 'kemarinjangan', 'berbicara', 'terorisnya']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['teroris', 'ahok', 'bom', 'kemarinjangan', 'bicara', 'teroris']</t>
         </is>
       </c>
     </row>
@@ -2667,10 +2977,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18304</v>
+        <v>31735</v>
       </c>
       <c r="C63" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2684,17 +2994,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['media', 'oh', 'media']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['media', 'ohh', 'media']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['media', 'ohh', 'media']</t>
+          <t>['media', 'oh', 'media']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['media', 'oh', 'media']</t>
         </is>
       </c>
     </row>
@@ -2703,10 +3018,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18305</v>
+        <v>31736</v>
       </c>
       <c r="C64" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2720,15 +3035,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['siap', 'siap', 'dilantik']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['dilantik']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['lantik']</t>
         </is>
@@ -2739,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18306</v>
+        <v>31737</v>
       </c>
       <c r="C65" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2756,17 +3076,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['rakyat', 'menyambut', 'gembira', 'calon, presiden', 'calon, wakil, presiden', 'jokowi', 'setya, novanto', 'bravo', 'golkar']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['rakyat', 'menyambut', 'gembira', 'capres', 'cawapres', 'jokowi', 'setnov', 'bravo', 'golkar']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['rakyat', 'sambut', 'gembira', 'capres', 'cawapres', 'jokowi', 'setnov', 'bravo', 'golkar']</t>
+          <t>['rakyat', 'menyambut', 'gembira', 'calon, presiden', 'calon, wakil, presiden', 'jokowi', 'setya, novanto', 'bravo', 'golkar']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['rakyat', 'sambut', 'gembira', 'calon presiden', 'calon wakil presiden', 'jokowi', 'setya novanto', 'bravo', 'golkar']</t>
         </is>
       </c>
     </row>
@@ -2775,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18307</v>
+        <v>31738</v>
       </c>
       <c r="C66" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2792,15 +3117,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['indonesia', 'butuh', 'orang', 'kuat', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['indonesia', 'butuh', 'orang', 'kuat', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['indonesia', 'butuh', 'orang', 'kuat', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -2811,10 +3141,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18308</v>
+        <v>31739</v>
       </c>
       <c r="C67" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2828,15 +3158,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'batik', 'nasional']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['selamat', 'batik', 'nasional']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>['selamat', 'batik', 'nasional']</t>
         </is>
@@ -2847,10 +3182,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18309</v>
+        <v>31740</v>
       </c>
       <c r="C68" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2864,15 +3199,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['menyaksikan', 'detikdetik', 'berakhirnya', 'negara', 'kesatuan', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['menyaksikan', 'detikdetik', 'negara', 'kesatuan', 'republik', 'indonesia']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['saksi', 'detikdetik', 'negara', 'satu', 'republik', 'indonesia']</t>
         </is>
@@ -2883,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18310</v>
+        <v>31741</v>
       </c>
       <c r="C69" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2900,15 +3240,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['pride', 'and', 'joy', 'nd', 'season']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['pride', 'and', 'joy', 'nd', 'season']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['pride', 'and', 'joy', 'nd', 'season']</t>
         </is>
@@ -2919,10 +3264,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18311</v>
+        <v>31742</v>
       </c>
       <c r="C70" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2936,17 +3281,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['menimbang', 'sang', 'jenderal', 'gatot', 'nurmantyo']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['menimbang', 'sang', 'jendral', 'gatot', 'nurmantyo']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['timbang', 'sang', 'jendral', 'gatot', 'nurmantyo']</t>
+          <t>['menimbang', 'sang', 'jenderal', 'gatot', 'nurmantyo']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['timbang', 'sang', 'jenderal', 'gatot', 'nurmantyo']</t>
         </is>
       </c>
     </row>
@@ -2955,10 +3305,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18312</v>
+        <v>31743</v>
       </c>
       <c r="C71" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2972,15 +3322,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['happy', 'wifi']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['happy', 'wifi']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['happy', 'wifi']</t>
         </is>
@@ -2991,10 +3346,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18313</v>
+        <v>31744</v>
       </c>
       <c r="C72" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3008,15 +3363,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['feea', 'arsy']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['feea', 'arsy']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['feea', 'arsy']</t>
         </is>
@@ -3027,10 +3387,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18314</v>
+        <v>31745</v>
       </c>
       <c r="C73" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3044,15 +3404,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['agnes', 'pakai', 'jaket', 'ahmad', 'dhani', 'itu', 'enak']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['agnes', 'pakai', 'jaket', 'ahmad', 'dhani', 'enak']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['agnes', 'pakai', 'jaket', 'ahmad', 'dhani', 'enak']</t>
         </is>
@@ -3063,10 +3428,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18315</v>
+        <v>31746</v>
       </c>
       <c r="C74" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3080,17 +3445,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['papa', 'meminta', 'menangpapa', 'meminta', 'sembuh', 'papa', 'meminta', 'dukung', 'pemilihan, presiden']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['papa', 'menangpapa', 'sembuh', 'papa', 'dukung', 'pilpres']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['papa', 'menangpapa', 'sembuh', 'papa', 'dukung', 'pilpres']</t>
+          <t>['papa', 'menangpapa', 'sembuh', 'papa', 'dukung', 'pemilihan, presiden']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['papa', 'menangpapa', 'sembuh', 'papa', 'dukung', 'pilih presiden']</t>
         </is>
       </c>
     </row>
@@ -3099,10 +3469,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18316</v>
+        <v>31747</v>
       </c>
       <c r="C75" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3116,17 +3486,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['jika', 'panglima', 'tentara, nasional, indonesia', 'di', 'pecatpanglima', 'tentara, nasional, indonesia', 'bisa', 'menolaksiapa', 'bilang', 'tidak', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['panglima', 'tni', 'pecatpanglima', 'tni', 'menolaksiapa']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['panglima', 'tni', 'pecatpanglima', 'tni', 'menolaksiapa']</t>
+          <t>['panglima', 'tentara, nasional, indonesia', 'pecatpanglima', 'tentara, nasional, indonesia', 'menolaksiapa']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['panglima', 'tentara nasional indonesia', 'pecatpanglima', 'tentara nasional indonesia', 'menolaksiapa']</t>
         </is>
       </c>
     </row>
@@ -3135,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18317</v>
+        <v>31748</v>
       </c>
       <c r="C76" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3152,15 +3527,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['demo', 'tidak', 'butuh', 'fatwa', 'ulama', 'yang', 'menolak', 'demo']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['demo', 'butuh', 'fatwa', 'ulama', 'menolak', 'demo']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['demo', 'butuh', 'fatwa', 'ulama', 'tolak', 'demo']</t>
         </is>
@@ -3171,10 +3551,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18318</v>
+        <v>31749</v>
       </c>
       <c r="C77" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3188,17 +3568,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'aereta', 'spirit', 'bersejarah', 'bagai', 'tombol', 'detonator', 'bom', 'waktu', 'yang', 'telah', 'ditekan', 'meledakkan', 'seluruh', 'potensi', 'positif', 'salam', 'mas']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['aereta', 'spirit', 'bersejarah', 'tombol', 'detonator', 'bom', 'tlh', 'ditekan', 'meledakkan', 'potensi', 'positif', 'salam', 'mas']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['aereta', 'spirit', 'sejarah', 'tombol', 'detonator', 'bom', 'tlh', 'tekan', 'ledak', 'potensi', 'positif', 'salam', 'mas']</t>
+          <t>['aereta', 'spirit', 'bersejarah', 'tombol', 'detonator', 'bom', 'ditekan', 'meledakkan', 'potensi', 'positif', 'salam', 'mas']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['aereta', 'spirit', 'sejarah', 'tombol', 'detonator', 'bom', 'tekan', 'ledak', 'potensi', 'positif', 'salam', 'mas']</t>
         </is>
       </c>
     </row>
@@ -3207,10 +3592,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18319</v>
+        <v>31750</v>
       </c>
       <c r="C78" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3224,15 +3609,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['pucuk', 'senjata', 'ilegal', 'dan', 'aksi', 'demo', 'anti', 'pkiwhat', 'coinsiden']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['pucuk', 'senjata', 'ilegal', 'aksi', 'demo', 'anti', 'pkiwhat', 'coinsiden']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['pucuk', 'senjata', 'ilegal', 'aksi', 'demo', 'anti', 'pkiwhat', 'coinsiden']</t>
         </is>
@@ -3243,10 +3633,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18320</v>
+        <v>31751</v>
       </c>
       <c r="C79" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3260,17 +3650,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['fatwa', 'pengurus, besar, nahdlatul, ulama', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['fatwa', 'pbnu', 'by', 'ahmad', 'dhani']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['fatwa', 'pbnu', 'by', 'ahmad', 'dhani']</t>
+          <t>['fatwa', 'pengurus, besar, nahdlatul, ulama', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['fatwa', 'urus besar nahdlatul ulama', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
     </row>
@@ -3279,10 +3674,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18321</v>
+        <v>31752</v>
       </c>
       <c r="C80" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3296,17 +3691,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['kalau', 'ujung', 'nya', 'begini', 'jadi', 'calon, wakil, presiden', 'jkwitu', 'baru', 'politikpdip', 'lebih', 'tau', 'lah']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['ujung', 'gn', 'cawapres', 'jkwitu', 'politikpdip']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['ujung', 'gn', 'cawapres', 'jkwitu', 'politikpdip']</t>
+          <t>['ujung', 'calon, wakil, presiden', 'jkwitu', 'politikpdip']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ujung', 'calon wakil presiden', 'jkwitu', 'politikpdip']</t>
         </is>
       </c>
     </row>
@@ -3315,10 +3715,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18322</v>
+        <v>31753</v>
       </c>
       <c r="C81" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3332,15 +3732,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['tulisan', 'bagus']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['tulisan', 'bagus']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['tulis', 'bagus']</t>
         </is>
@@ -3351,10 +3756,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18323</v>
+        <v>31754</v>
       </c>
       <c r="C82" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3368,15 +3773,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['dasar', 'dasar', 'ilmu', 'politik', 'ra', 'popo', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['dasar', 'dasar', 'ilmu', 'politik', 'ra', 'popo', 'by', 'ahmaddhani']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['dasar', 'dasar', 'ilmu', 'politik', 'ra', 'popo', 'by', 'ahmaddhani']</t>
         </is>
@@ -3387,10 +3797,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18324</v>
+        <v>31755</v>
       </c>
       <c r="C83" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3404,15 +3814,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['angin', 'live', 'aceh']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['angin', 'live', 'aceh']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['angin', 'live', 'aceh']</t>
         </is>
@@ -3423,10 +3838,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18325</v>
+        <v>31756</v>
       </c>
       <c r="C84" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3440,17 +3855,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['sejak', 'sampai', 'rakyat', 'selalu', 'di', 'belakang', 'panglima', 'tnijasmerah']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['sampe', 'rakyat', 'panglima', 'tnijasmerah']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['sampe', 'rakyat', 'panglima', 'tnijasmerah']</t>
+          <t>['rakyat', 'panglima', 'tnijasmerah']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['rakyat', 'panglima', 'tnijasmerah']</t>
         </is>
       </c>
     </row>
@@ -3459,10 +3879,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18326</v>
+        <v>31757</v>
       </c>
       <c r="C85" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3476,15 +3896,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['hati', 'hati', 'penipuan', 'asosiasi', 'mediasi', 'bisnis', 'indonesia', 'ambisi']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['hati', 'hati', 'penipuan', 'asosiasi', 'mediasi', 'bisnis', 'indonesia', 'ambisi']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['hati', 'hati', 'tipu', 'asosiasi', 'mediasi', 'bisnis', 'indonesia', 'ambisi']</t>
         </is>
@@ -3495,10 +3920,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18327</v>
+        <v>31758</v>
       </c>
       <c r="C86" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3512,17 +3937,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['apakah', 'yang', 'dimaksud', 'panglima', 'tentara, nasional, indonesia', 'itu', 'bin', 'saya', 'rasa', 'bukanwiranto', 'harus', 'lebih', 'lembut']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['panglima', 'tni', 'bin', 'bukanwiranto', 'soft']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['panglima', 'tni', 'bin', 'bukanwiranto', 'soft']</t>
+          <t>['panglima', 'tentara, nasional, indonesia', 'bin', 'bukanwiranto', 'lembut']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['panglima', 'tentara nasional indonesia', 'bin', 'bukanwiranto', 'lembut']</t>
         </is>
       </c>
     </row>
@@ -3531,10 +3961,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18328</v>
+        <v>31759</v>
       </c>
       <c r="C87" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3548,15 +3978,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['setelah', 'bertemu', 'jokowilalu', 'wiranto', 'bilang', 'senjata', 'illegal', 'itu', 'miskomuniskasion']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>['bertemu', 'jokowilalu', 'wiranto', 'senjata', 'illegal', 'miskomuniskasion']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>['temu', 'jokowilalu', 'wiranto', 'senjata', 'illegal', 'miskomuniskasion']</t>
         </is>
@@ -3567,10 +4002,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18329</v>
+        <v>31760</v>
       </c>
       <c r="C88" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3584,15 +4019,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['partai', 'kecebong', 'indonesia', 'by', 'ahmad', 'dhani']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['partai', 'kecebong', 'indonesia', 'by', 'ahmad', 'dhani']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['partai', 'kecebong', 'indonesia', 'by', 'ahmad', 'dhani']</t>
         </is>
@@ -3603,10 +4043,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18330</v>
+        <v>31761</v>
       </c>
       <c r="C89" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3620,17 +4060,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['seorang', 'panglima', 'tentara, nasional, indonesia', 'tidak', 'butuh', 'berpolitik', 'untuk', 'merebut', 'kekuasaan', 'kalau', 'maucuma', 'butuh', 'dukungan', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['panglima', 'tni', 'butuh', 'berpolitik', 'merebut', 'kekuasaan', 'maucuma', 'butuh', 'dukungan', 'rakyat']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['panglima', 'tni', 'butuh', 'politik', 'rebut', 'kuasa', 'maucuma', 'butuh', 'dukung', 'rakyat']</t>
+          <t>['panglima', 'tentara, nasional, indonesia', 'butuh', 'berpolitik', 'merebut', 'kekuasaan', 'maucuma', 'butuh', 'dukungan', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['panglima', 'tentara nasional indonesia', 'butuh', 'politik', 'rebut', 'kuasa', 'maucuma', 'butuh', 'dukung', 'rakyat']</t>
         </is>
       </c>
     </row>
@@ -3639,10 +4084,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18331</v>
+        <v>31762</v>
       </c>
       <c r="C90" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3656,15 +4101,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['presiden', 'harus', 'gebuk', 'institusi', 'tertentu', 'importir', 'pucuk', 'senjata', 'ilegal']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['presiden', 'gebuk', 'institusi', 'importir', 'pucuk', 'senjata', 'ilegal']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['presiden', 'gebuk', 'institusi', 'importir', 'pucuk', 'senjata', 'ilegal']</t>
         </is>
@@ -3675,10 +4125,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18332</v>
+        <v>31763</v>
       </c>
       <c r="C91" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3692,17 +4142,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['rt', 'yang', 'dukung', 'menonton, bareng', 'film', 'pengkhianatan', 'gspki', 'pasti', 'pancasilais', 'yang', 'anti', 'film', 'itu', 'bisa', 'jadi', 'pendukung']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['dukung', 'nobar', 'film', 'pengkhianatan', 'gspki', 'pancasilais', 'anti', 'film', 'pendukung']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['dukung', 'nobar', 'film', 'khianat', 'gspki', 'pancasilais', 'anti', 'film', 'dukung']</t>
+          <t>['dukung', 'menonton, bareng', 'film', 'pengkhianatan', 'gspki', 'pancasilais', 'anti', 'film', 'pendukung']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['dukung', 'tonton bareng', 'film', 'khianat', 'gspki', 'pancasilais', 'anti', 'film', 'dukung']</t>
         </is>
       </c>
     </row>
@@ -3711,10 +4166,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18333</v>
+        <v>31764</v>
       </c>
       <c r="C92" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3728,17 +4183,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['hayo', 'siapa', 'impor', 'senjata', 'bawa', 'nama', 'jokowi', 'hayo', 'mengakui']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['hayo', 'impor', 'senjata', 'bawa', 'nama', 'jokowi', 'hayo', 'ngaku']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['hayo', 'impor', 'senjata', 'bawa', 'nama', 'jokowi', 'hayo', 'ngaku']</t>
+          <t>['hayo', 'impor', 'senjata', 'bawa', 'nama', 'jokowi', 'hayo', 'mengakui']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['hayo', 'impor', 'senjata', 'bawa', 'nama', 'jokowi', 'hayo', 'aku']</t>
         </is>
       </c>
     </row>
@@ -3747,10 +4207,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18334</v>
+        <v>31765</v>
       </c>
       <c r="C93" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3764,15 +4224,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3783,10 +4248,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18335</v>
+        <v>31766</v>
       </c>
       <c r="C94" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3800,17 +4265,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['televisi, republik, indonesia', 'tolak', 'tayang', 'film', 'gspkiwhatthef']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['tvri', 'tolak', 'tayang', 'film', 'gspkiwhatthef']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['tvri', 'tolak', 'tayang', 'film', 'gspkiwhatthef']</t>
+          <t>['televisi, republik, indonesia', 'tolak', 'tayang', 'film', 'gspkiwhatthef']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['televisi republik indonesia', 'tolak', 'tayang', 'film', 'gspkiwhatthef']</t>
         </is>
       </c>
     </row>
@@ -3819,10 +4289,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18336</v>
+        <v>31767</v>
       </c>
       <c r="C95" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3836,17 +4306,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['kalau', 'soeharto', 'di', 'tuduh', 'dalang', 'gspki', 'terus', 'dalang', 'pemberontakan', 'partai, komunis, indonesia', 'siapa', 'mukidi']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>['soeharto', 'tuduh', 'dalang', 'gspki', 'trus', 'dalang', 'pemberontakan', 'pki', 'mukidi']</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['soeharto', 'tuduh', 'dalang', 'gspki', 'trus', 'dalang', 'ronta', 'pki', 'mukidi']</t>
+          <t>['soeharto', 'tuduh', 'dalang', 'gspki', 'dalang', 'pemberontakan', 'partai, komunis, indonesia', 'mukidi']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['soeharto', 'tuduh', 'dalang', 'gspki', 'dalang', 'ronta', 'partai komunis indonesia', 'mukidi']</t>
         </is>
       </c>
     </row>
@@ -3855,10 +4330,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18337</v>
+        <v>31768</v>
       </c>
       <c r="C96" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3872,15 +4347,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['dalang', 'gs', 'by', 'ahmaddhani']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['dalang', 'gs', 'by', 'ahmaddhani']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['dalang', 'gs', 'by', 'ahmaddhani']</t>
         </is>
@@ -3891,10 +4371,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18338</v>
+        <v>31769</v>
       </c>
       <c r="C97" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3908,17 +4388,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'yuk', 'tonton', 'video', 'clip', 'single', 'terbaru', 'jangan', 'begitu', 'dong']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['yuk', 'tonton', 'video', 'clip', 'single', 'terbaru', 'gitu']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['yuk', 'tonton', 'video', 'clip', 'single', 'baru', 'gitu']</t>
+          <t>['yuk', 'tonton', 'video', 'clip', 'single', 'terbaru']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['yuk', 'tonton', 'video', 'clip', 'single', 'baru']</t>
         </is>
       </c>
     </row>
@@ -3927,10 +4412,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18339</v>
+        <v>31770</v>
       </c>
       <c r="C98" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3944,17 +4429,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['rt', 'dewi', 'dewi', 'on', 'dahsyat', 'rajawali, citra, televisi, indonesia', 'rabu', 'september', 'pukul', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['dewi', 'dewi', 'on', 'dahsyat', 'rcti', 'rabu', 'september', 'pkl', 'wib']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['dewi', 'dewi', 'on', 'dahsyat', 'rcti', 'rabu', 'september', 'pkl', 'wib']</t>
+          <t>['dewi', 'dewi', 'on', 'dahsyat', 'rajawali, citra, televisi, indonesia', 'rabu', 'september', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['dewi', 'dewi', 'on', 'dahsyat', 'rajawali citra televisi indonesia', 'rabu', 'september', 'waktu indonesia bagi barat']</t>
         </is>
       </c>
     </row>
@@ -3963,10 +4453,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18340</v>
+        <v>31771</v>
       </c>
       <c r="C99" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3980,15 +4470,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['rt', 'the', 'virgin', 'lippo', 'plaza', 'ekalokasari', 'bogor', 'september']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>['the', 'virgin', 'lippo', 'plaza', 'ekalokasari', 'bogor', 'september']</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>['the', 'virgin', 'lippo', 'plaza', 'ekalokasari', 'bogor', 'september']</t>
         </is>
@@ -3999,10 +4494,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18341</v>
+        <v>31772</v>
       </c>
       <c r="C100" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4016,15 +4511,20 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['wajib', 'tonton']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>['wajib', 'tonton']</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>['wajib', 'tonton']</t>
         </is>
@@ -4035,10 +4535,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18342</v>
+        <v>31773</v>
       </c>
       <c r="C101" t="n">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4052,17 +4552,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['sumur', 'neraka', 'buang', 'mayat', 'korban', 'partai, komunis, indonesia', 'kalau', 'di', 'bikin', 'film', 'lebih', 'dahsyat']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['sumur', 'neraka', 'buang', 'mayat', 'korban', 'pki', 'film', 'dahsyat']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['sumur', 'neraka', 'buang', 'mayat', 'korban', 'pki', 'film', 'dahsyat']</t>
+          <t>['sumur', 'neraka', 'buang', 'mayat', 'korban', 'partai, komunis, indonesia', 'film', 'dahsyat']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['sumur', 'neraka', 'buang', 'mayat', 'korban', 'partai komunis indonesia', 'film', 'dahsyat']</t>
         </is>
       </c>
     </row>
